--- a/data/xlsxFiles/activities_C.xlsx
+++ b/data/xlsxFiles/activities_C.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evnw/Documents/GitHub/Horiz/data/csvFiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evnw/Documents/GitHub/Horiz/data/xlsxFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="16940" windowHeight="16460"/>
   </bookViews>
   <sheets>
     <sheet name="Activity Evaluation" sheetId="1" r:id="rId1"/>
@@ -187,7 +187,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="219">
   <si>
     <t>Abbre</t>
   </si>
@@ -198,9 +198,6 @@
     <t>Score</t>
   </si>
   <si>
-    <t>Registration Date</t>
-  </si>
-  <si>
     <t>Season</t>
   </si>
   <si>
@@ -222,9 +219,6 @@
     <t>Organizer</t>
   </si>
   <si>
-    <t>Web Page</t>
-  </si>
-  <si>
     <t>Spring</t>
   </si>
   <si>
@@ -832,6 +826,24 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>WebPage</t>
+  </si>
+  <si>
+    <t>MonetaryAward</t>
+  </si>
+  <si>
+    <t>RegistrationFee</t>
+  </si>
+  <si>
+    <t>TimeSpan</t>
+  </si>
+  <si>
+    <t>ElegibleTeam</t>
+  </si>
+  <si>
+    <t>RegistrationDate</t>
   </si>
 </sst>
 </file>
@@ -1287,18 +1299,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="51.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="3" customWidth="1"/>
     <col min="5" max="5" width="15.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="3" customWidth="1"/>
     <col min="7" max="7" width="19" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="3" customWidth="1"/>
     <col min="9" max="9" width="15.5" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.33203125" style="3" customWidth="1"/>
     <col min="11" max="11" width="11.6640625" style="3" customWidth="1"/>
@@ -1314,81 +1328,81 @@
   <sheetData>
     <row r="1" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="3">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="D2" s="3">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="F2" s="3">
         <v>4</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H2" s="3">
         <v>2</v>
@@ -1397,54 +1411,54 @@
         <v>43636</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R2" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D3" s="3">
         <v>5</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F3" s="3">
         <v>2</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H3" s="3">
         <v>1</v>
@@ -1453,54 +1467,54 @@
         <v>43616</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4" s="3">
         <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F4" s="3">
         <v>5</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H4" s="3">
         <v>3</v>
@@ -1509,54 +1523,54 @@
         <v>43811</v>
       </c>
       <c r="J4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="L4" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="R4" s="10" t="s">
         <v>62</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="R4" s="10" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D5" s="3">
         <v>5</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F5" s="3">
         <v>4</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H5" s="3">
         <v>4</v>
@@ -1565,54 +1579,54 @@
         <v>43542</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="R5" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D6" s="3">
         <v>5</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F6" s="3">
         <v>4</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H6" s="3">
         <v>4</v>
@@ -1621,110 +1635,110 @@
         <v>43681</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7" s="3">
         <v>5</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F7" s="3">
         <v>5</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H7" s="3">
         <v>3</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="R7" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="R7" s="5" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D8" s="3">
         <v>5</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F8" s="3">
         <v>5</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H8" s="3">
         <v>3</v>
@@ -1733,54 +1747,54 @@
         <v>43657</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R8" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D9" s="3">
         <v>5</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F9" s="3">
         <v>4</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H9" s="3">
         <v>4</v>
@@ -1789,54 +1803,54 @@
         <v>43651</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q9" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="R9" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="R9" s="5" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="C10" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D10" s="3">
         <v>5</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F10" s="3">
         <v>4</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H10" s="3">
         <v>4</v>
@@ -1845,54 +1859,54 @@
         <v>43738</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="N10" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D11" s="3">
         <v>5</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F11" s="3">
         <v>3</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H11" s="3">
         <v>3</v>
@@ -1901,54 +1915,54 @@
         <v>43496</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P11" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="R11" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="R11" s="5" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D12" s="3">
         <v>5</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F12" s="3">
         <v>3</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
@@ -1957,54 +1971,54 @@
         <v>43739</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q12" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P12" s="3" t="s">
+      <c r="R12" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="Q12" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="R12" s="5" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D13" s="3">
         <v>5</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F13" s="3">
         <v>3</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H13" s="3">
         <v>1</v>
@@ -2013,54 +2027,54 @@
         <v>43474</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P13" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q13" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="Q13" s="5" t="s">
-        <v>101</v>
-      </c>
       <c r="R13" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D14" s="3">
         <v>5</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F14" s="3">
         <v>3</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H14" s="3">
         <v>3</v>
@@ -2069,54 +2083,54 @@
         <v>43738</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P14" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q14" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="Q14" s="5" t="s">
-        <v>101</v>
-      </c>
       <c r="R14" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D15" s="3">
         <v>5</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F15" s="3">
         <v>3</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H15" s="3">
         <v>3</v>
@@ -2125,54 +2139,54 @@
         <v>43777</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D16" s="3">
         <v>5</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F16" s="3">
         <v>3</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H16" s="3">
         <v>1</v>
@@ -2181,54 +2195,54 @@
         <v>43630</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Q16" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="R16" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="R16" s="5" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D17" s="3">
         <v>5</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F17" s="3">
         <v>3</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H17" s="3">
         <v>1</v>
@@ -2237,1039 +2251,1039 @@
         <v>43731</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Q17" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="R17" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="R17" s="5" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D18" s="3">
         <v>5</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F18" s="3">
         <v>3</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H18" s="3">
         <v>1</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P18" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="R18" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="Q18" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="R18" s="5" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>125</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D19" s="3">
         <v>5</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F19" s="3">
         <v>3</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H19" s="3">
         <v>1</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Q19" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="R19" s="5" t="s">
         <v>135</v>
-      </c>
-      <c r="R19" s="5" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D20" s="3">
         <v>5</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F20" s="3">
         <v>3</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H20" s="3">
         <v>1</v>
       </c>
       <c r="I20" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>135</v>
-      </c>
       <c r="R20" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D21" s="3">
         <v>5</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F21" s="3">
         <v>3</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H21" s="3">
         <v>1</v>
       </c>
       <c r="I21" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="R21" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q21" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="R21" s="5" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D22" s="3">
         <v>5</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F22" s="3">
         <v>3</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H22" s="3">
         <v>1</v>
       </c>
       <c r="I22" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q22" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P22" s="3" t="s">
+      <c r="R22" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="Q22" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="R22" s="5" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D23" s="3">
         <v>5</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F23" s="3">
         <v>4</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H23" s="3">
         <v>3</v>
       </c>
       <c r="I23" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q23" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P23" s="3" t="s">
+      <c r="R23" s="5" t="s">
         <v>148</v>
-      </c>
-      <c r="Q23" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="R23" s="5" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D24" s="3">
         <v>5</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F24" s="3">
         <v>3</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H24" s="3">
         <v>1</v>
       </c>
       <c r="I24" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q24" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="R24" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q24" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="R24" s="5" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="3">
+        <v>5</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="3">
+        <v>5</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" s="3">
+        <v>5</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L25" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="3">
-        <v>5</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F25" s="3">
-        <v>5</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H25" s="3">
-        <v>5</v>
-      </c>
-      <c r="I25" s="4" t="s">
+      <c r="M25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q25" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="J25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L25" s="3" t="s">
+      <c r="R25" s="5" t="s">
         <v>159</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P25" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q25" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="R25" s="5" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D26" s="3">
         <v>5</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F26" s="3">
         <v>1</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H26" s="3">
         <v>1</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="Q26" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="R26" s="5" t="s">
         <v>167</v>
-      </c>
-      <c r="R26" s="5" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D27" s="3">
         <v>5</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F27" s="3">
         <v>5</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H27" s="3">
         <v>1</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="R27" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D28" s="3">
         <v>5</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F28" s="3">
         <v>4</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H28" s="3">
         <v>4</v>
       </c>
       <c r="I28" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P28" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="J28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="O28" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P28" s="3" t="s">
-        <v>175</v>
-      </c>
       <c r="Q28" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="R28" s="5" t="s">
         <v>174</v>
-      </c>
-      <c r="R28" s="5" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="3">
+        <v>5</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="3">
+        <v>5</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H29" s="3">
+        <v>5</v>
+      </c>
+      <c r="I29" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="J29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q29" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="3">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F29" s="3">
-        <v>5</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H29" s="3">
-        <v>5</v>
-      </c>
-      <c r="I29" s="4" t="s">
+      <c r="R29" s="5" t="s">
         <v>179</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q29" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="R29" s="5" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D30" s="3">
         <v>5</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F30" s="3">
         <v>4</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H30" s="3">
         <v>3</v>
       </c>
       <c r="I30" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q30" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="J30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="O30" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P30" s="3" t="s">
+      <c r="R30" s="5" t="s">
         <v>184</v>
-      </c>
-      <c r="Q30" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="R30" s="5" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D31" s="3">
         <v>5</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F31" s="3">
         <v>4</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H31" s="3">
         <v>1</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M31" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M31" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="N31" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q31" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="R31" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D32" s="3">
         <v>5</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F32" s="3">
         <v>4</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H32" s="3">
         <v>1</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M32" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="N32" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="R32" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D33" s="3">
         <v>5</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F33" s="3">
         <v>4</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H33" s="3">
         <v>1</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M33" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="N33" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="Q33" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="R33" s="5" t="s">
         <v>195</v>
-      </c>
-      <c r="R33" s="5" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D34" s="3">
         <v>5</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F34" s="3">
         <v>4</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H34" s="3">
         <v>4</v>
       </c>
       <c r="I34" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q34" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="R34" s="5" t="s">
         <v>200</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M34" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N34" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="O34" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P34" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q34" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="R34" s="5" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="3">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="3">
+        <v>5</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H35" s="3">
+        <v>5</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q35" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="R35" s="10" t="s">
         <v>204</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" s="3">
-        <v>5</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F35" s="3">
-        <v>5</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H35" s="3">
-        <v>5</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q35" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="R35" s="10" t="s">
-        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -3434,22 +3448,22 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
       <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
       </c>
       <c r="H1" t="s">
         <v>1</v>
@@ -3460,25 +3474,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -3486,25 +3500,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -3512,19 +3526,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -3532,19 +3546,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -3552,89 +3566,89 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
